--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H2">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.446520666666667</v>
+        <v>1.975599</v>
       </c>
       <c r="N2">
-        <v>4.339562</v>
+        <v>5.926797000000001</v>
       </c>
       <c r="O2">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="P2">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="Q2">
-        <v>1.805642566497333</v>
+        <v>3.535332434901</v>
       </c>
       <c r="R2">
-        <v>16.250783098476</v>
+        <v>31.817991914109</v>
       </c>
       <c r="S2">
-        <v>0.001977695366580889</v>
+        <v>0.003561945613020847</v>
       </c>
       <c r="T2">
-        <v>0.001977695366580889</v>
+        <v>0.003561945613020846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H3">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.631935</v>
       </c>
       <c r="O3">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="P3">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="Q3">
-        <v>5.672093658236665</v>
+        <v>8.131444683521664</v>
       </c>
       <c r="R3">
-        <v>51.04884292412999</v>
+        <v>73.18300215169499</v>
       </c>
       <c r="S3">
-        <v>0.006212565850431876</v>
+        <v>0.008192656348823036</v>
       </c>
       <c r="T3">
-        <v>0.006212565850431876</v>
+        <v>0.008192656348823036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H4">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>1.149333</v>
       </c>
       <c r="O4">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="P4">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="Q4">
-        <v>0.4782244355259999</v>
+        <v>0.685576751389</v>
       </c>
       <c r="R4">
-        <v>4.304019919733999</v>
+        <v>6.170190762500999</v>
       </c>
       <c r="S4">
-        <v>0.000523792619798614</v>
+        <v>0.000690737617173338</v>
       </c>
       <c r="T4">
-        <v>0.000523792619798614</v>
+        <v>0.000690737617173338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>103.907654</v>
       </c>
       <c r="H5">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I5">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J5">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.446520666666667</v>
+        <v>1.975599</v>
       </c>
       <c r="N5">
-        <v>4.339562</v>
+        <v>5.926797000000001</v>
       </c>
       <c r="O5">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="P5">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="Q5">
-        <v>150.3045689358493</v>
+        <v>205.279857334746</v>
       </c>
       <c r="R5">
-        <v>1352.741120422644</v>
+        <v>1847.518716012714</v>
       </c>
       <c r="S5">
-        <v>0.1646265186010755</v>
+        <v>0.2068251573901902</v>
       </c>
       <c r="T5">
-        <v>0.1646265186010755</v>
+        <v>0.2068251573901902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>103.907654</v>
       </c>
       <c r="H6">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I6">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J6">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.631935</v>
       </c>
       <c r="O6">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="P6">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="Q6">
-        <v>472.1541284434965</v>
+        <v>472.1541284434966</v>
       </c>
       <c r="R6">
-        <v>4249.387155991469</v>
+        <v>4249.38715599147</v>
       </c>
       <c r="S6">
-        <v>0.5171438962840381</v>
+        <v>0.4757083972857248</v>
       </c>
       <c r="T6">
-        <v>0.517143896284038</v>
+        <v>0.4757083972857249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>103.907654</v>
       </c>
       <c r="H7">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I7">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J7">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,22 @@
         <v>1.149333</v>
       </c>
       <c r="O7">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="P7">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="Q7">
-        <v>39.80816523159399</v>
+        <v>39.808165231594</v>
       </c>
       <c r="R7">
-        <v>358.2734870843459</v>
+        <v>358.273487084346</v>
       </c>
       <c r="S7">
-        <v>0.04360133361462055</v>
+        <v>0.04010783204127617</v>
       </c>
       <c r="T7">
-        <v>0.04360133361462054</v>
+        <v>0.04010783204127617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>114.274593</v>
       </c>
       <c r="I8">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J8">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.446520666666667</v>
+        <v>1.975599</v>
       </c>
       <c r="N8">
-        <v>4.339562</v>
+        <v>5.926797000000001</v>
       </c>
       <c r="O8">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="P8">
-        <v>0.2269546876364677</v>
+        <v>0.2862071854613167</v>
       </c>
       <c r="Q8">
-        <v>55.100186816474</v>
+        <v>75.253590552069</v>
       </c>
       <c r="R8">
-        <v>495.901681348266</v>
+        <v>677.282314968621</v>
       </c>
       <c r="S8">
-        <v>0.06035047366881123</v>
+        <v>0.07582008245810563</v>
       </c>
       <c r="T8">
-        <v>0.06035047366881122</v>
+        <v>0.07582008245810562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>114.274593</v>
       </c>
       <c r="I9">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J9">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>13.631935</v>
       </c>
       <c r="O9">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="P9">
-        <v>0.7129363631181282</v>
+        <v>0.6582911054219697</v>
       </c>
       <c r="Q9">
         <v>173.087091547495</v>
@@ -1004,10 +1004,10 @@
         <v>1557.783823927455</v>
       </c>
       <c r="S9">
-        <v>0.1895799009836583</v>
+        <v>0.1743900517874218</v>
       </c>
       <c r="T9">
-        <v>0.1895799009836583</v>
+        <v>0.1743900517874218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>114.274593</v>
       </c>
       <c r="I10">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J10">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>1.149333</v>
       </c>
       <c r="O10">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="P10">
-        <v>0.0601089492454041</v>
+        <v>0.05550170911671371</v>
       </c>
       <c r="Q10">
         <v>14.593284532941</v>
@@ -1066,10 +1066,10 @@
         <v>131.339560796469</v>
       </c>
       <c r="S10">
-        <v>0.01598382301098494</v>
+        <v>0.0147031394582642</v>
       </c>
       <c r="T10">
-        <v>0.01598382301098494</v>
+        <v>0.0147031394582642</v>
       </c>
     </row>
   </sheetData>
